--- a/mednickdb_pyparse/stagemaps/xml_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/xml_stagemap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>mapsfrom</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>sws</t>
+  </si>
+  <si>
+    <t>rem</t>
   </si>
 </sst>
 </file>
@@ -388,7 +400,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -411,8 +423,8 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -422,8 +434,8 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -433,8 +445,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -444,8 +456,8 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -455,8 +467,8 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -466,8 +478,8 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
